--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhiprajapati/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhiprajapati/eclipse-workspace-QA/Selenium_Step_by_step/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B12B46-0140-C042-98D1-EE8DB13CBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1CAF12-3FEA-9B47-AE55-1D00D09055C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="2280" windowWidth="25600" windowHeight="13900" xr2:uid="{49FC1D7E-AB7D-854E-B446-CBAA19620DD3}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="20220" xr2:uid="{49FC1D7E-AB7D-854E-B446-CBAA19620DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,18 +52,6 @@
     <t>Selenium</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Jmeter</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
     <t>Africa</t>
   </si>
   <si>
@@ -71,6 +59,18 @@
   </si>
   <si>
     <t>Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Jmeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Python</t>
   </si>
 </sst>
 </file>
@@ -127,11 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +193,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -296,7 +299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +475,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
@@ -482,12 +485,12 @@
         <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>45321</v>
@@ -496,12 +499,12 @@
         <v>200</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>45322</v>
@@ -510,12 +513,12 @@
         <v>453</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>45323</v>
@@ -524,12 +527,12 @@
         <v>432</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
+      <c r="A6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>45324</v>
@@ -538,7 +541,7 @@
         <v>700</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
